--- a/office/LAB16.xlsx
+++ b/office/LAB16.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5F9F70-10FF-433A-82A0-655CB053E731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{CDEAFD18-BB5A-4251-87FF-29D837422BEB}"/>
+    <workbookView xWindow="40152" yWindow="8232" windowWidth="28116" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
     <sheet name="Лист3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,8 +47,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +83,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,6 +148,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -584,6 +595,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -591,7 +603,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -641,6 +652,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1051,6 +1063,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,7 +1425,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1826,7 +1841,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1935,6 +1952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1971,6 +1989,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1978,7 +1997,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -3762,10 +3780,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EB00A38B-7856-4A52-8D81-443FD4DA0249}">
-  <sheetPr/>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Диаграмма2"/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3853,7 +3871,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:ext cx="9283290" cy="6055032"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -4178,16 +4196,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D972F71-5DA1-4462-BCC2-F478008B504D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2020</v>
       </c>
@@ -4204,11 +4223,11 @@
         <v>100000</v>
       </c>
       <c r="J1">
-        <f>$K$1/100 * I1</f>
-        <v>57999.999999999993</v>
-      </c>
-      <c r="K1">
-        <v>58</v>
+        <f>$K$1 * I1</f>
+        <v>10000</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0.1</v>
       </c>
       <c r="M1">
         <v>0</v>
@@ -4218,7 +4237,7 @@
         <v>0.84089641525371461</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -4236,8 +4255,8 @@
         <v>120000</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J5" si="0">$K$1/100 * I2</f>
-        <v>69600</v>
+        <f t="shared" ref="J2:J5" si="0">$K$1 * I2</f>
+        <v>12000</v>
       </c>
       <c r="M2">
         <v>0.1</v>
@@ -4247,7 +4266,7 @@
         <v>0.86114092420838872</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -4266,7 +4285,7 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>75400</v>
+        <v>13000</v>
       </c>
       <c r="M3">
         <v>0.2</v>
@@ -4276,7 +4295,7 @@
         <v>0.87986764827270836</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -4295,7 +4314,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>23200</v>
+        <v>4000</v>
       </c>
       <c r="M4">
         <v>0.3</v>
@@ -4305,7 +4324,7 @@
         <v>0.89712621803715198</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -4324,7 +4343,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>40600</v>
+        <v>7000</v>
       </c>
       <c r="M5">
         <v>0.4</v>
@@ -4334,7 +4353,7 @@
         <v>0.91295791481580157</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>0.92739719702441958</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -4372,7 +4391,7 @@
         <v>0.9404728873729149</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -4391,7 +4410,7 @@
         <v>0.95220910530289193</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -4410,7 +4429,7 @@
         <v>0.96262600490051842</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -4429,7 +4448,7 @@
         <v>0.97174036188985924</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M11">
         <v>1</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>0.9795660416657932</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M12">
         <v>1.1000000000000001</v>
       </c>
@@ -4447,7 +4466,7 @@
         <v>0.98611437201400298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M13">
         <v>1.2</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>0.99139443812287797</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M14">
         <v>1.3</v>
       </c>
@@ -4465,7 +4484,7 @@
         <v>0.99541331301356917</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M15">
         <v>1.4</v>
       </c>
@@ -4474,7 +4493,7 @@
         <v>0.99817623312343939</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M16">
         <v>1.5</v>
       </c>
@@ -4483,7 +4502,7 @@
         <v>0.99968672614548737</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M17">
         <v>1.6</v>
       </c>
@@ -4492,7 +4511,7 @@
         <v>0.99994669611838394</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>1.7</v>
       </c>
@@ -4501,7 +4520,7 @@
         <v>0.99895646900722312</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M19">
         <v>1.8</v>
       </c>
@@ -4510,7 +4529,7 @@
         <v>0.99671480048248351</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M20">
         <v>1.9</v>
       </c>
@@ -4519,7 +4538,7 @@
         <v>0.9932188461866287</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
       <c r="M21">
         <v>2</v>
       </c>
@@ -4535,23 +4554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB6C01-DC29-4E97-AF7C-1CA07DCAD2EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>740</v>
+        <v>392</v>
       </c>
       <c r="B1">
         <f ca="1">SUM($A$1:A1)</f>
-        <v>740</v>
+        <v>392</v>
       </c>
       <c r="D1">
         <v>7</v>
@@ -4561,14 +4581,14 @@
         <v>11.096083731178885</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A20" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <f ca="1">SUM($A$1:A2)</f>
-        <v>792</v>
+        <v>433</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -4578,14 +4598,14 @@
         <v>13.251731302466062</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>803</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <f ca="1">SUM($A$1:A3)</f>
-        <v>1595</v>
+        <v>623</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -4595,14 +4615,14 @@
         <v>15.28370862081665</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <f ca="1">SUM($A$1:A4)</f>
-        <v>1875</v>
+        <v>899</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -4612,14 +4632,14 @@
         <v>17.219406923195823</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>649</v>
+        <v>282</v>
       </c>
       <c r="B5">
         <f ca="1">SUM($A$1:A5)</f>
-        <v>2524</v>
+        <v>1181</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -4629,14 +4649,14 @@
         <v>19.077023730408396</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>735</v>
       </c>
       <c r="B6">
         <f ca="1">SUM($A$1:A6)</f>
-        <v>2655</v>
+        <v>1916</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -4646,14 +4666,14 @@
         <v>20.869269177920092</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>759</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <f ca="1">SUM($A$1:A7)</f>
-        <v>3414</v>
+        <v>1991</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -4663,14 +4683,14 @@
         <v>22.605052096156697</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="B8">
         <f ca="1">SUM($A$1:A8)</f>
-        <v>3959</v>
+        <v>2580</v>
       </c>
       <c r="D8">
         <v>28</v>
@@ -4680,14 +4700,14 @@
         <v>24.289781202168644</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>778</v>
+        <v>506</v>
       </c>
       <c r="B9">
         <f ca="1">SUM($A$1:A9)</f>
-        <v>4737</v>
+        <v>3086</v>
       </c>
       <c r="D9">
         <v>31</v>
@@ -4697,14 +4717,14 @@
         <v>25.92367760133817</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>654</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <f ca="1">SUM($A$1:A10)</f>
-        <v>5391</v>
+        <v>3285</v>
       </c>
       <c r="D10">
         <v>34</v>
@@ -4714,14 +4734,14 @@
         <v>27.495271986858508</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>731</v>
       </c>
       <c r="B11">
         <f ca="1">SUM($A$1:A11)</f>
-        <v>5512</v>
+        <v>4016</v>
       </c>
       <c r="D11">
         <v>37</v>
@@ -4731,14 +4751,14 @@
         <v>28.961131625927333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>851</v>
       </c>
       <c r="B12">
         <f ca="1">SUM($A$1:A12)</f>
-        <v>5868</v>
+        <v>4867</v>
       </c>
       <c r="D12">
         <v>40</v>
@@ -4748,14 +4768,14 @@
         <v>30.184549490234382</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="B13">
         <f ca="1">SUM($A$1:A13)</f>
-        <v>6101</v>
+        <v>5169</v>
       </c>
       <c r="D13">
         <v>43</v>
@@ -4765,14 +4785,14 @@
         <v>30.75072147356402</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="B14">
         <f ca="1">SUM($A$1:A14)</f>
-        <v>6730</v>
+        <v>5740</v>
       </c>
       <c r="D14">
         <v>46</v>
@@ -4782,14 +4802,14 @@
         <v>29.413432986222162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>591</v>
       </c>
       <c r="B15">
         <f ca="1">SUM($A$1:A15)</f>
-        <v>6745</v>
+        <v>6331</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -4799,54 +4819,54 @@
         <v>22.498670948012268</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>286</v>
+        <v>707</v>
       </c>
       <c r="B16">
         <f ca="1">SUM($A$1:A16)</f>
-        <v>7031</v>
+        <v>7038</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="B17">
         <f ca="1">SUM($A$1:A17)</f>
-        <v>7350</v>
+        <v>7207</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>487</v>
       </c>
       <c r="B18">
         <f ca="1">SUM($A$1:A18)</f>
-        <v>7654</v>
+        <v>7694</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>676</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <f ca="1">SUM($A$1:A19)</f>
-        <v>8330</v>
+        <v>7852</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <f ca="1">SUM($A$1:A20)</f>
-        <v>8648</v>
+        <v>7944</v>
       </c>
     </row>
   </sheetData>
@@ -4855,16 +4875,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC99D5C-8F9A-4CAC-AE7B-18CDE968EB6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -4929,897 +4950,897 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <f>$A2*$A2-B$1*B$1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:V14" si="0">$A2*$A2-C$1*C$1</f>
-        <v>3.99</v>
+        <v>-1.0000000000000002E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>3.96</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>3.91</v>
+        <v>-0.09</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>-0.16000000000000003</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>-0.25</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>3.64</v>
+        <v>-0.36</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>3.5100000000000002</v>
+        <v>-0.48999999999999994</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>3.36</v>
+        <v>-0.64000000000000012</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>3.19</v>
+        <v>-0.81</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>2.79</v>
+        <v>-1.2100000000000002</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>2.56</v>
+        <v>-1.44</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>2.3099999999999996</v>
+        <v>-1.6900000000000002</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>2.04</v>
+        <v>-1.9599999999999997</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>1.4399999999999995</v>
+        <v>-2.5600000000000005</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>1.1100000000000003</v>
+        <v>-2.8899999999999997</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.75999999999999979</v>
+        <v>-3.24</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.39000000000000012</v>
+        <v>-3.61</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:Q22" si="1">$A3*$A3-B$1*B$1</f>
-        <v>3.61</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>3.57</v>
+        <v>-3.0000000000000006E-2</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>3.52</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>3.36</v>
+        <v>-0.24</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>-0.35</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>3.12</v>
+        <v>-0.47999999999999993</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>2.9699999999999998</v>
+        <v>-0.63000000000000012</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>-0.8</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>-0.99</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>2.3999999999999995</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>2.17</v>
+        <v>-1.43</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1.9199999999999997</v>
+        <v>-1.6800000000000002</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
+        <v>-1.9499999999999997</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>1.3599999999999999</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>1.0499999999999994</v>
+        <v>-2.5500000000000007</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.7200000000000002</v>
+        <v>-2.88</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.36999999999999966</v>
+        <v>-3.2300000000000004</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
+        <v>-3.6</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>-3.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-0.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.12000000000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.21</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-0.31999999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-0.77</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-0.96</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-1.1700000000000002</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-1.4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>-1.6500000000000001</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>-1.9199999999999997</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-2.21</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>-2.5200000000000005</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>-2.8499999999999996</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-3.2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>-3.57</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>-3.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-0.3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000034E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-0.16</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-0.27</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-0.55000000000000016</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-0.72000000000000008</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-0.91</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-1.3499999999999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>-1.8699999999999997</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>-2.16</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-2.4700000000000006</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>-2.8</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-3.1500000000000004</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>-3.52</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>-3.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000034E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-0.3299999999999999</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-0.48000000000000009</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-0.65</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-0.84</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-1.0500000000000003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-1.2799999999999998</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-1.5300000000000002</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-1.7999999999999998</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-2.09</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>-2.7299999999999995</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-3.08</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>-3.4499999999999997</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-3.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-0.23999999999999994</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>-0.39000000000000012</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>-0.96000000000000019</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-1.19</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-1.4400000000000002</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-1.7099999999999997</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-2.3100000000000005</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>-2.6399999999999997</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-2.99</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>-3.36</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-3.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-1.8</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="1"/>
-        <v>3.24</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3.2300000000000004</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>3.1500000000000004</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3.08</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>2.8800000000000003</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>2.7500000000000004</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000003</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>1.55</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>1.2800000000000005</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0.99000000000000021</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>0.67999999999999972</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0.35000000000000053</v>
-      </c>
-      <c r="T4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-0.6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>-0.36999999999999966</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>-0.75999999999999979</v>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.12999999999999995</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000014</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-0.45000000000000007</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-0.64</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.8500000000000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-1.08</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-1.33</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-1.5999999999999996</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-1.8900000000000001</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-2.2000000000000006</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-2.8800000000000003</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>-3.25</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-3.64</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-1.7</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>2.8899999999999997</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.88</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2.7299999999999995</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2.6399999999999997</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>2.0799999999999996</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1.8899999999999997</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1.6799999999999995</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1.4499999999999997</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1.1999999999999995</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0.63999999999999968</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>0.32999999999999918</v>
-      </c>
-      <c r="S5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-0.7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.23999999999999994</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>-0.35000000000000053</v>
-      </c>
-      <c r="U5">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-0.15000000000000019</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-0.32000000000000012</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-0.51</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>-0.7200000000000002</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>-1.1100000000000003</v>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-0.95</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-1.4699999999999998</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>-1.76</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-2.0700000000000007</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>-2.4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>-2.7500000000000004</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>-3.12</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>-3.5100000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-1.6</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="1"/>
-        <v>2.5600000000000005</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2.4700000000000006</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000006</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2.0700000000000007</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.9200000000000004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1.7500000000000004</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1.5600000000000005</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1.3500000000000003</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1.1200000000000006</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.87000000000000033</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000075</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0.3100000000000005</v>
-      </c>
-      <c r="R6">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-0.8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000016</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000012</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000019</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>-0.32999999999999918</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>-0.67999999999999972</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>-1.0499999999999994</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>-1.4399999999999995</v>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>-0.35999999999999988</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>-1.05</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-1.3199999999999996</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-1.6099999999999999</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-1.9200000000000004</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>-2.2499999999999996</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>-2.6</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>-2.9699999999999998</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>-3.36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-1.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2.21</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2.09</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1.8900000000000001</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>1.76</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1.6099999999999999</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1.0399999999999998</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-0.9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0.55999999999999983</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0.29000000000000026</v>
-      </c>
-      <c r="Q7">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>-0.63999999999999968</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>-0.99000000000000021</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>-1.3599999999999999</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>-1.75</v>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-0.62999999999999989</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-0.88000000000000012</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-1.1499999999999997</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-1.44</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-1.7500000000000004</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>-2.0799999999999996</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>-2.8</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>-3.19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-1.4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.9499999999999997</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.9199999999999997</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.8699999999999997</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.7099999999999997</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.4699999999999998</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.3199999999999996</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1.1499999999999997</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0.95999999999999974</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0.74999999999999956</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.5199999999999998</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0.26999999999999957</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-0.29000000000000026</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>-0.60000000000000075</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>-0.92999999999999994</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>-1.2800000000000005</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>-1.6500000000000001</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>-2.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-1.3</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>1.6900000000000002</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.5300000000000002</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1.4400000000000002</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1.33</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0.69000000000000017</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.25000000000000022</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>-0.26999999999999957</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>-0.55999999999999983</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>-0.87000000000000033</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>-1.1999999999999995</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>-1.55</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>-1.9199999999999997</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>-2.3099999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-1.2</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.43</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.2799999999999998</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.19</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0.22999999999999976</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>-0.25000000000000022</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>-0.5199999999999998</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>-0.81</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>-1.1200000000000006</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>-1.4499999999999997</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>-1.8000000000000003</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>-2.17</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>-2.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.1700000000000002</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>1.0500000000000003</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.96000000000000019</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0.8500000000000002</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.7200000000000002</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0.21000000000000019</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>-0.22999999999999976</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>-0.48</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>-0.74999999999999956</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>-1.0399999999999998</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>-1.3500000000000003</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>-1.6799999999999995</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>-2.0300000000000002</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>-2.3999999999999995</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
-        <v>-2.79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -5908,894 +5929,894 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-0.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>1.2100000000000002</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>1.1700000000000002</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.72000000000000008</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>1.0500000000000003</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.96000000000000019</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
+        <v>0.8500000000000002</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.32000000000000012</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.16999999999999993</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000019</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>-0.18999999999999995</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>-0.40000000000000013</v>
-      </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>-0.62999999999999989</v>
+        <v>-0.22999999999999976</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>-0.88000000000000012</v>
+        <v>-0.48</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>-1.1499999999999997</v>
+        <v>-0.74999999999999956</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>-1.44</v>
+        <v>-1.0399999999999998</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>-1.7500000000000004</v>
+        <v>-1.3500000000000003</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>-2.0799999999999996</v>
+        <v>-1.6799999999999995</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>-2.4300000000000002</v>
+        <v>-2.0300000000000002</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>-2.8</v>
+        <v>-2.3999999999999995</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>-3.19</v>
+        <v>-2.79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>0.64000000000000012</v>
+        <v>1.44</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.63000000000000012</v>
+        <v>1.43</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1.4</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.55000000000000016</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.48000000000000009</v>
+        <v>1.2799999999999998</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.39000000000000012</v>
+        <v>1.19</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.28000000000000014</v>
+        <v>1.08</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.15000000000000019</v>
+        <v>0.95</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999976</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>-0.16999999999999993</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>-0.35999999999999988</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>-0.57000000000000006</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
-      </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>-1.05</v>
+        <v>-0.25000000000000022</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>-1.3199999999999996</v>
+        <v>-0.5199999999999998</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>-1.6099999999999999</v>
+        <v>-0.81</v>
       </c>
       <c r="R14">
         <f t="shared" ref="R14:V22" si="2">$A14*$A14-R$1*R$1</f>
-        <v>-1.9200000000000004</v>
+        <v>-1.1200000000000006</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>-2.2499999999999996</v>
+        <v>-1.4499999999999997</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>-2.6</v>
+        <v>-1.8000000000000003</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>-2.9699999999999998</v>
+        <v>-2.17</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>-3.36</v>
+        <v>-2.56</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>0.48999999999999994</v>
+        <v>1.6900000000000002</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.47999999999999993</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>1.6</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.3299999999999999</v>
+        <v>1.5300000000000002</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.23999999999999994</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.12999999999999995</v>
+        <v>1.33</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000017</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>-0.15000000000000019</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>-0.32000000000000012</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>-0.51</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>-0.7200000000000002</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>-0.95</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>-1.2000000000000002</v>
-      </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>-1.4699999999999998</v>
+        <v>-0.26999999999999957</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>-1.76</v>
+        <v>-0.55999999999999983</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>-2.0700000000000007</v>
+        <v>-0.87000000000000033</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>-2.4</v>
+        <v>-1.1999999999999995</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
-        <v>-2.7500000000000004</v>
+        <v>-1.55</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>-3.12</v>
+        <v>-1.9199999999999997</v>
       </c>
       <c r="V15">
         <f t="shared" si="2"/>
-        <v>-3.5100000000000002</v>
+        <v>-2.3099999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>0.36</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>1.9499999999999997</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.31999999999999995</v>
+        <v>1.9199999999999997</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>1.8699999999999997</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.10999999999999999</v>
+        <v>1.7099999999999997</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.4699999999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1.3199999999999996</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.95999999999999974</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.74999999999999956</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0.5199999999999998</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>-0.12999999999999995</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>-0.28000000000000014</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>-0.45000000000000007</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>-0.64</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>-0.8500000000000002</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>-1.08</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>-1.33</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="1"/>
-        <v>-1.5999999999999996</v>
-      </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>-1.8900000000000001</v>
+        <v>-0.29000000000000026</v>
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-2.2000000000000006</v>
+        <v>-0.60000000000000075</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>-2.5299999999999998</v>
+        <v>-0.92999999999999994</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
-        <v>-2.8800000000000003</v>
+        <v>-1.2800000000000005</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>-3.25</v>
+        <v>-1.6500000000000001</v>
       </c>
       <c r="V16">
         <f t="shared" si="2"/>
-        <v>-3.64</v>
+        <v>-2.04</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>2.21</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>2.16</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>8.9999999999999969E-2</v>
+        <v>2.09</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>1.76</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1.0399999999999998</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999983</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000026</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-0.10999999999999999</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>-0.23999999999999994</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>-0.39000000000000012</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>-0.96000000000000019</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>-1.19</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>-1.4400000000000002</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="1"/>
-        <v>-1.7099999999999997</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>-2</v>
       </c>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>-2.3100000000000005</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
-        <v>-2.6399999999999997</v>
+        <v>-0.63999999999999968</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>-2.99</v>
+        <v>-0.99000000000000021</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>-3.36</v>
+        <v>-1.3599999999999999</v>
       </c>
       <c r="V17">
         <f t="shared" si="2"/>
-        <v>-3.75</v>
+        <v>-1.75</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.15000000000000002</v>
+        <v>2.5500000000000007</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.12000000000000002</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>7.0000000000000034E-2</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-8.9999999999999969E-2</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999996</v>
+        <v>2.2000000000000006</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>-0.3299999999999999</v>
+        <v>2.0700000000000007</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>-0.48000000000000009</v>
+        <v>1.9200000000000004</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>-0.65</v>
+        <v>1.7500000000000004</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>-0.84</v>
+        <v>1.5600000000000005</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>-1.0500000000000003</v>
+        <v>1.3500000000000003</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>-1.2799999999999998</v>
+        <v>1.1200000000000006</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>-1.5300000000000002</v>
+        <v>0.87000000000000033</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>-1.7999999999999998</v>
+        <v>0.60000000000000075</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>-2.09</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>-2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
-        <v>-2.7299999999999995</v>
+        <v>-0.32999999999999918</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
-        <v>-3.08</v>
+        <v>-0.67999999999999972</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>-3.4499999999999997</v>
+        <v>-1.0499999999999994</v>
       </c>
       <c r="V18">
         <f t="shared" si="2"/>
-        <v>-3.84</v>
+        <v>-1.4399999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-0.3</v>
+        <v>-1.7</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>7.9999999999999988E-2</v>
+        <v>2.88</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>4.9999999999999989E-2</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000034E-2</v>
+        <v>2.7299999999999995</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-0.16</v>
+        <v>2.6399999999999997</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-0.27</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>2.4</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>-0.55000000000000016</v>
+        <v>2.2499999999999996</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>-0.72000000000000008</v>
+        <v>2.0799999999999996</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>-0.91</v>
+        <v>1.8899999999999997</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>-1.1200000000000001</v>
+        <v>1.6799999999999995</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>-1.3499999999999999</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>1.1999999999999995</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>-1.8699999999999997</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>-2.16</v>
+        <v>0.63999999999999968</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>-2.4700000000000006</v>
+        <v>0.32999999999999918</v>
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
-        <v>-3.1500000000000004</v>
+        <v>-0.35000000000000053</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>-3.52</v>
+        <v>-0.7200000000000002</v>
       </c>
       <c r="V19">
         <f t="shared" si="2"/>
-        <v>-3.91</v>
+        <v>-1.1100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
+        <v>3.24</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>3.0000000000000006E-2</v>
+        <v>3.2300000000000004</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>-4.9999999999999989E-2</v>
+        <v>3.1500000000000004</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>-0.12000000000000002</v>
+        <v>3.08</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-0.21</v>
+        <v>2.99</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>-0.31999999999999995</v>
+        <v>2.8800000000000003</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>-0.44999999999999996</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>-0.60000000000000009</v>
+        <v>2.6</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>-0.77</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>-0.96</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>-1.1700000000000002</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>-1.4</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>-1.6500000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>-1.9199999999999997</v>
+        <v>1.2800000000000005</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>-2.21</v>
+        <v>0.99000000000000021</v>
       </c>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>-2.5200000000000005</v>
+        <v>0.67999999999999972</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
-        <v>-2.8499999999999996</v>
+        <v>0.35000000000000053</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
-        <v>-3.2</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <f t="shared" si="2"/>
-        <v>-3.57</v>
+        <v>-0.36999999999999966</v>
       </c>
       <c r="V20">
         <f t="shared" si="2"/>
-        <v>-3.96</v>
+        <v>-0.75999999999999979</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>-0.1</v>
+        <v>-1.9</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>3.61</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>-3.0000000000000006E-2</v>
+        <v>3.57</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>-7.9999999999999988E-2</v>
+        <v>3.52</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>-0.15000000000000002</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-0.24</v>
+        <v>3.36</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.35</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>-0.47999999999999993</v>
+        <v>3.12</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>-0.63000000000000012</v>
+        <v>2.9699999999999998</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>-0.8</v>
+        <v>2.8</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>-0.99</v>
+        <v>2.61</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>-1.2000000000000002</v>
+        <v>2.3999999999999995</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>-1.43</v>
+        <v>2.17</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>-1.6800000000000002</v>
+        <v>1.9199999999999997</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>-1.9499999999999997</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>-2.2400000000000002</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>-2.5500000000000007</v>
+        <v>1.0499999999999994</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
-        <v>-2.88</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
-        <v>-3.2300000000000004</v>
+        <v>0.36999999999999966</v>
       </c>
       <c r="U21">
         <f t="shared" si="2"/>
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <f t="shared" si="2"/>
-        <v>-3.99</v>
+        <v>-0.39000000000000012</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000002E-2</v>
+        <v>3.99</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-4.0000000000000008E-2</v>
+        <v>3.96</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>-0.09</v>
+        <v>3.91</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>-0.16000000000000003</v>
+        <v>3.84</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>-0.25</v>
+        <v>3.75</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-0.36</v>
+        <v>3.64</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>-0.48999999999999994</v>
+        <v>3.5100000000000002</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>-0.64000000000000012</v>
+        <v>3.36</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>-0.81</v>
+        <v>3.19</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>-1.2100000000000002</v>
+        <v>2.79</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>-1.44</v>
+        <v>2.56</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>-1.6900000000000002</v>
+        <v>2.3099999999999996</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>-1.9599999999999997</v>
+        <v>2.04</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>-2.5600000000000005</v>
+        <v>1.4399999999999995</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
-        <v>-2.8899999999999997</v>
+        <v>1.1100000000000003</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>-3.24</v>
+        <v>0.75999999999999979</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>-3.61</v>
+        <v>0.39000000000000012</v>
       </c>
       <c r="V22">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
